--- a/StructureDefinition-ext-R5-DeviceDefinition.guideline.xlsx
+++ b/StructureDefinition-ext-R5-DeviceDefinition.guideline.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `DeviceDefinition.guideline` 0..1 `BackboneElement`
 Following are the generation technical comments:
-Element `DeviceDefinition.guideline` is mapped to FHIR R4 structure `DeviceDefinition`, but has no target element specified.</t>
+Element `DeviceDefinition.guideline` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -140,7 +140,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:DeviceDefinition</t>
   </si>
   <si>
     <t>ID</t>
@@ -342,7 +342,7 @@
   </si>
   <si>
     <t>Element `DeviceDefinition.guideline.useContext` is part of an existing definition because parent element `DeviceDefinition.guideline` requires a cross-version extension.
-Element `DeviceDefinition.guideline.useContext` is mapped to FHIR R4 structure `DeviceDefinition`, but has no target element specified.</t>
+Element `DeviceDefinition.guideline.useContext` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:useContext.id</t>
@@ -425,7 +425,7 @@
   </si>
   <si>
     <t>Element `DeviceDefinition.guideline.usageInstruction` is part of an existing definition because parent element `DeviceDefinition.guideline` requires a cross-version extension.
-Element `DeviceDefinition.guideline.usageInstruction` is mapped to FHIR R4 structure `DeviceDefinition`, but has no target element specified.</t>
+Element `DeviceDefinition.guideline.usageInstruction` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:usageInstruction.id</t>
@@ -457,7 +457,7 @@
   </si>
   <si>
     <t>Element `DeviceDefinition.guideline.relatedArtifact` is part of an existing definition because parent element `DeviceDefinition.guideline` requires a cross-version extension.
-Element `DeviceDefinition.guideline.relatedArtifact` is mapped to FHIR R4 structure `DeviceDefinition`, but has no target element specified.</t>
+Element `DeviceDefinition.guideline.relatedArtifact` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:relatedArtifact.id</t>
@@ -492,7 +492,7 @@
   </si>
   <si>
     <t>Element `DeviceDefinition.guideline.indication` is part of an existing definition because parent element `DeviceDefinition.guideline` requires a cross-version extension.
-Element `DeviceDefinition.guideline.indication` is mapped to FHIR R4 structure `DeviceDefinition`, but has no target element specified.</t>
+Element `DeviceDefinition.guideline.indication` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:indication.id</t>
@@ -524,7 +524,7 @@
   </si>
   <si>
     <t>Element `DeviceDefinition.guideline.contraindication` is part of an existing definition because parent element `DeviceDefinition.guideline` requires a cross-version extension.
-Element `DeviceDefinition.guideline.contraindication` is mapped to FHIR R4 structure `DeviceDefinition`, but has no target element specified.</t>
+Element `DeviceDefinition.guideline.contraindication` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:contraindication.id</t>
@@ -552,7 +552,7 @@
   </si>
   <si>
     <t>Element `DeviceDefinition.guideline.warning` is part of an existing definition because parent element `DeviceDefinition.guideline` requires a cross-version extension.
-Element `DeviceDefinition.guideline.warning` is mapped to FHIR R4 structure `DeviceDefinition`, but has no target element specified.</t>
+Element `DeviceDefinition.guideline.warning` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:warning.id</t>
@@ -580,7 +580,7 @@
   </si>
   <si>
     <t>Element `DeviceDefinition.guideline.intendedUse` is part of an existing definition because parent element `DeviceDefinition.guideline` requires a cross-version extension.
-Element `DeviceDefinition.guideline.intendedUse` is mapped to FHIR R4 structure `DeviceDefinition`, but has no target element specified.</t>
+Element `DeviceDefinition.guideline.intendedUse` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:intendedUse.id</t>
@@ -942,7 +942,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="139.88671875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="150.375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-DeviceDefinition.guideline.xlsx
+++ b/StructureDefinition-ext-R5-DeviceDefinition.guideline.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="194">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `DeviceDefinition.guideline` 0..1 `BackboneElement`
 Following are the generation technical comments:
-Element `DeviceDefinition.guideline` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+Element `DeviceDefinition.guideline` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -342,7 +342,7 @@
   </si>
   <si>
     <t>Element `DeviceDefinition.guideline.useContext` is part of an existing definition because parent element `DeviceDefinition.guideline` requires a cross-version extension.
-Element `DeviceDefinition.guideline.useContext` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+Element `DeviceDefinition.guideline.useContext` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:useContext.id</t>
@@ -389,6 +389,9 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.guideline.useContext</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -425,7 +428,7 @@
   </si>
   <si>
     <t>Element `DeviceDefinition.guideline.usageInstruction` is part of an existing definition because parent element `DeviceDefinition.guideline` requires a cross-version extension.
-Element `DeviceDefinition.guideline.usageInstruction` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+Element `DeviceDefinition.guideline.usageInstruction` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:usageInstruction.id</t>
@@ -435,6 +438,9 @@
   </si>
   <si>
     <t>Extension.extension:usageInstruction.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.guideline.usageInstruction</t>
   </si>
   <si>
     <t>Extension.extension:usageInstruction.value[x]</t>
@@ -457,7 +463,7 @@
   </si>
   <si>
     <t>Element `DeviceDefinition.guideline.relatedArtifact` is part of an existing definition because parent element `DeviceDefinition.guideline` requires a cross-version extension.
-Element `DeviceDefinition.guideline.relatedArtifact` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+Element `DeviceDefinition.guideline.relatedArtifact` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:relatedArtifact.id</t>
@@ -467,6 +473,9 @@
   </si>
   <si>
     <t>Extension.extension:relatedArtifact.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.guideline.relatedArtifact</t>
   </si>
   <si>
     <t>Extension.extension:relatedArtifact.value[x]</t>
@@ -492,7 +501,7 @@
   </si>
   <si>
     <t>Element `DeviceDefinition.guideline.indication` is part of an existing definition because parent element `DeviceDefinition.guideline` requires a cross-version extension.
-Element `DeviceDefinition.guideline.indication` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+Element `DeviceDefinition.guideline.indication` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:indication.id</t>
@@ -502,6 +511,9 @@
   </si>
   <si>
     <t>Extension.extension:indication.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.guideline.indication</t>
   </si>
   <si>
     <t>Extension.extension:indication.value[x]</t>
@@ -524,7 +536,7 @@
   </si>
   <si>
     <t>Element `DeviceDefinition.guideline.contraindication` is part of an existing definition because parent element `DeviceDefinition.guideline` requires a cross-version extension.
-Element `DeviceDefinition.guideline.contraindication` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+Element `DeviceDefinition.guideline.contraindication` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:contraindication.id</t>
@@ -536,6 +548,9 @@
     <t>Extension.extension:contraindication.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.guideline.contraindication</t>
+  </si>
+  <si>
     <t>Extension.extension:contraindication.value[x]</t>
   </si>
   <si>
@@ -552,7 +567,7 @@
   </si>
   <si>
     <t>Element `DeviceDefinition.guideline.warning` is part of an existing definition because parent element `DeviceDefinition.guideline` requires a cross-version extension.
-Element `DeviceDefinition.guideline.warning` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+Element `DeviceDefinition.guideline.warning` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:warning.id</t>
@@ -564,6 +579,9 @@
     <t>Extension.extension:warning.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.guideline.warning</t>
+  </si>
+  <si>
     <t>Extension.extension:warning.value[x]</t>
   </si>
   <si>
@@ -580,7 +598,7 @@
   </si>
   <si>
     <t>Element `DeviceDefinition.guideline.intendedUse` is part of an existing definition because parent element `DeviceDefinition.guideline` requires a cross-version extension.
-Element `DeviceDefinition.guideline.intendedUse` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+Element `DeviceDefinition.guideline.intendedUse` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:intendedUse.id</t>
@@ -590,6 +608,9 @@
   </si>
   <si>
     <t>Extension.extension:intendedUse.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.guideline.intendedUse</t>
   </si>
   <si>
     <t>Extension.extension:intendedUse.value[x]</t>
@@ -942,7 +963,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="150.375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="144.38671875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -1750,7 +1771,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -1792,7 +1813,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>79</v>
@@ -1807,15 +1828,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1838,7 +1859,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>102</v>
@@ -1895,7 +1916,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1907,21 +1928,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1946,14 +1967,14 @@
         <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -2022,7 +2043,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>106</v>
@@ -2125,7 +2146,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>108</v>
@@ -2230,7 +2251,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>114</v>
@@ -2273,7 +2294,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2315,7 +2336,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -2330,15 +2351,15 @@
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2361,13 +2382,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2418,7 +2439,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2430,21 +2451,21 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2469,14 +2490,14 @@
         <v>94</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2545,7 +2566,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>106</v>
@@ -2648,7 +2669,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>108</v>
@@ -2753,7 +2774,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>114</v>
@@ -2796,7 +2817,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2838,7 +2859,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -2853,15 +2874,15 @@
         <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2884,13 +2905,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2941,7 +2962,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -2953,21 +2974,21 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -2992,16 +3013,16 @@
         <v>94</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3070,7 +3091,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>106</v>
@@ -3173,7 +3194,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>108</v>
@@ -3278,7 +3299,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>114</v>
@@ -3321,7 +3342,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3363,7 +3384,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -3378,15 +3399,15 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3409,16 +3430,16 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -3468,7 +3489,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -3480,21 +3501,21 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3519,16 +3540,16 @@
         <v>94</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -3597,7 +3618,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>106</v>
@@ -3700,7 +3721,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>108</v>
@@ -3805,7 +3826,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>114</v>
@@ -3848,7 +3869,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -3890,7 +3911,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -3905,15 +3926,15 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -3936,16 +3957,16 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -3995,7 +4016,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4007,21 +4028,21 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4046,16 +4067,16 @@
         <v>94</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4124,7 +4145,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>106</v>
@@ -4227,7 +4248,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>108</v>
@@ -4332,7 +4353,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>114</v>
@@ -4375,7 +4396,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -4417,7 +4438,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -4432,15 +4453,15 @@
         <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4463,16 +4484,16 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -4522,7 +4543,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -4534,21 +4555,21 @@
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -4573,14 +4594,14 @@
         <v>94</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -4649,7 +4670,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>106</v>
@@ -4752,7 +4773,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>108</v>
@@ -4857,7 +4878,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>114</v>
@@ -4900,7 +4921,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -4942,7 +4963,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -4957,15 +4978,15 @@
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -4991,10 +5012,10 @@
         <v>88</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5045,7 +5066,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -5057,18 +5078,18 @@
         <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5150,7 +5171,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -5165,15 +5186,15 @@
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5196,13 +5217,13 @@
         <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -5253,7 +5274,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -5265,10 +5286,10 @@
         <v>77</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ext-R5-DeviceDefinition.guideline.xlsx
+++ b/StructureDefinition-ext-R5-DeviceDefinition.guideline.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>

--- a/StructureDefinition-ext-R5-DeviceDefinition.guideline.xlsx
+++ b/StructureDefinition-ext-R5-DeviceDefinition.guideline.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="187">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -341,8 +341,7 @@
     <t>The circumstances that form the setting for using the device.</t>
   </si>
   <si>
-    <t>Element `DeviceDefinition.guideline.useContext` is part of an existing definition because parent element `DeviceDefinition.guideline` requires a cross-version extension.
-Element `DeviceDefinition.guideline.useContext` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+    <t>Element `DeviceDefinition.guideline.useContext` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:useContext.id</t>
@@ -389,9 +388,6 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.guideline.useContext</t>
-  </si>
-  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -427,8 +423,7 @@
     <t>Detailed written and visual directions for the user on how to use the device.</t>
   </si>
   <si>
-    <t>Element `DeviceDefinition.guideline.usageInstruction` is part of an existing definition because parent element `DeviceDefinition.guideline` requires a cross-version extension.
-Element `DeviceDefinition.guideline.usageInstruction` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+    <t>Element `DeviceDefinition.guideline.usageInstruction` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:usageInstruction.id</t>
@@ -438,9 +433,6 @@
   </si>
   <si>
     <t>Extension.extension:usageInstruction.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.guideline.usageInstruction</t>
   </si>
   <si>
     <t>Extension.extension:usageInstruction.value[x]</t>
@@ -462,8 +454,7 @@
     <t>A source of information or reference for this guideline.</t>
   </si>
   <si>
-    <t>Element `DeviceDefinition.guideline.relatedArtifact` is part of an existing definition because parent element `DeviceDefinition.guideline` requires a cross-version extension.
-Element `DeviceDefinition.guideline.relatedArtifact` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+    <t>Element `DeviceDefinition.guideline.relatedArtifact` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:relatedArtifact.id</t>
@@ -473,9 +464,6 @@
   </si>
   <si>
     <t>Extension.extension:relatedArtifact.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.guideline.relatedArtifact</t>
   </si>
   <si>
     <t>Extension.extension:relatedArtifact.value[x]</t>
@@ -500,8 +488,7 @@
     <t>A ClinicalUseDefinition that points to the DeviceDefinition can be used if more structured data is needed.</t>
   </si>
   <si>
-    <t>Element `DeviceDefinition.guideline.indication` is part of an existing definition because parent element `DeviceDefinition.guideline` requires a cross-version extension.
-Element `DeviceDefinition.guideline.indication` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+    <t>Element `DeviceDefinition.guideline.indication` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:indication.id</t>
@@ -511,9 +498,6 @@
   </si>
   <si>
     <t>Extension.extension:indication.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.guideline.indication</t>
   </si>
   <si>
     <t>Extension.extension:indication.value[x]</t>
@@ -535,8 +519,7 @@
     <t>A specific situation when a device should not be used because it may cause harm.</t>
   </si>
   <si>
-    <t>Element `DeviceDefinition.guideline.contraindication` is part of an existing definition because parent element `DeviceDefinition.guideline` requires a cross-version extension.
-Element `DeviceDefinition.guideline.contraindication` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+    <t>Element `DeviceDefinition.guideline.contraindication` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:contraindication.id</t>
@@ -548,9 +531,6 @@
     <t>Extension.extension:contraindication.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.guideline.contraindication</t>
-  </si>
-  <si>
     <t>Extension.extension:contraindication.value[x]</t>
   </si>
   <si>
@@ -566,8 +546,7 @@
     <t>Specific hazard alert information that a user needs to know before using the device.</t>
   </si>
   <si>
-    <t>Element `DeviceDefinition.guideline.warning` is part of an existing definition because parent element `DeviceDefinition.guideline` requires a cross-version extension.
-Element `DeviceDefinition.guideline.warning` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+    <t>Element `DeviceDefinition.guideline.warning` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:warning.id</t>
@@ -579,9 +558,6 @@
     <t>Extension.extension:warning.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.guideline.warning</t>
-  </si>
-  <si>
     <t>Extension.extension:warning.value[x]</t>
   </si>
   <si>
@@ -597,8 +573,7 @@
     <t>A description of the general purpose or medical use of the device or its function.</t>
   </si>
   <si>
-    <t>Element `DeviceDefinition.guideline.intendedUse` is part of an existing definition because parent element `DeviceDefinition.guideline` requires a cross-version extension.
-Element `DeviceDefinition.guideline.intendedUse` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+    <t>Element `DeviceDefinition.guideline.intendedUse` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:intendedUse.id</t>
@@ -608,9 +583,6 @@
   </si>
   <si>
     <t>Extension.extension:intendedUse.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.guideline.intendedUse</t>
   </si>
   <si>
     <t>Extension.extension:intendedUse.value[x]</t>
@@ -1771,72 +1743,72 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF8" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="S8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF8" t="s" s="2">
+      <c r="AG8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1859,7 +1831,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>102</v>
@@ -1916,33 +1888,33 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="AG9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>126</v>
-      </c>
       <c r="AK9" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1967,14 +1939,14 @@
         <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -2043,7 +2015,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>106</v>
@@ -2146,7 +2118,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>108</v>
@@ -2251,7 +2223,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>114</v>
@@ -2294,7 +2266,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2336,30 +2308,30 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2382,13 +2354,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2439,33 +2411,33 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="AG14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>126</v>
-      </c>
       <c r="AK14" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2490,14 +2462,14 @@
         <v>94</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2566,7 +2538,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>106</v>
@@ -2669,7 +2641,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>108</v>
@@ -2774,7 +2746,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>114</v>
@@ -2817,7 +2789,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2859,30 +2831,30 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2905,13 +2877,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2962,33 +2934,33 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="AG19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>126</v>
-      </c>
       <c r="AK19" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -3013,16 +2985,16 @@
         <v>94</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O20" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3091,7 +3063,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>106</v>
@@ -3194,7 +3166,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>108</v>
@@ -3299,7 +3271,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>114</v>
@@ -3342,7 +3314,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3384,30 +3356,30 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3430,16 +3402,16 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -3489,33 +3461,33 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="AG24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>126</v>
-      </c>
       <c r="AK24" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3540,16 +3512,16 @@
         <v>94</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -3618,7 +3590,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>106</v>
@@ -3721,7 +3693,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>108</v>
@@ -3826,7 +3798,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>114</v>
@@ -3869,7 +3841,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -3911,30 +3883,30 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -3957,16 +3929,16 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L29" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>164</v>
-      </c>
       <c r="N29" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4016,33 +3988,33 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="AG29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>126</v>
-      </c>
       <c r="AK29" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4067,16 +4039,16 @@
         <v>94</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4145,7 +4117,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>106</v>
@@ -4248,7 +4220,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>108</v>
@@ -4353,7 +4325,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>114</v>
@@ -4396,7 +4368,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -4438,30 +4410,30 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4484,16 +4456,16 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -4543,33 +4515,33 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="AG34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>126</v>
-      </c>
       <c r="AK34" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -4594,14 +4566,14 @@
         <v>94</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -4670,7 +4642,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>106</v>
@@ -4773,7 +4745,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>108</v>
@@ -4878,7 +4850,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>114</v>
@@ -4921,7 +4893,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -4963,30 +4935,30 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5012,10 +4984,10 @@
         <v>88</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5066,30 +5038,30 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="AG39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>126</v>
-      </c>
       <c r="AK39" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5171,30 +5143,30 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5217,13 +5189,13 @@
         <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -5274,22 +5246,22 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="AG41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>126</v>
-      </c>
       <c r="AK41" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
